--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.4297854471618</v>
+        <v>117.9639543333333</v>
       </c>
       <c r="H2">
-        <v>31.4297854471618</v>
+        <v>353.891863</v>
       </c>
       <c r="I2">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="J2">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N2">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q2">
-        <v>74.52174659829097</v>
+        <v>308.9141339572875</v>
       </c>
       <c r="R2">
-        <v>74.52174659829097</v>
+        <v>2780.227205615588</v>
       </c>
       <c r="S2">
-        <v>0.005873251349858219</v>
+        <v>0.01894034246582384</v>
       </c>
       <c r="T2">
-        <v>0.005873251349858219</v>
+        <v>0.01894034246582383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.4297854471618</v>
+        <v>117.9639543333333</v>
       </c>
       <c r="H3">
-        <v>31.4297854471618</v>
+        <v>353.891863</v>
       </c>
       <c r="I3">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="J3">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N3">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q3">
-        <v>469.3448091076033</v>
+        <v>1828.828567828743</v>
       </c>
       <c r="R3">
-        <v>469.3448091076033</v>
+        <v>16459.45711045869</v>
       </c>
       <c r="S3">
-        <v>0.03699027679127689</v>
+        <v>0.1121303157684196</v>
       </c>
       <c r="T3">
-        <v>0.03699027679127689</v>
+        <v>0.1121303157684196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.4297854471618</v>
+        <v>117.9639543333333</v>
       </c>
       <c r="H4">
-        <v>31.4297854471618</v>
+        <v>353.891863</v>
       </c>
       <c r="I4">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="J4">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N4">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q4">
-        <v>584.7650500948125</v>
+        <v>2203.433800212769</v>
       </c>
       <c r="R4">
-        <v>584.7650500948125</v>
+        <v>19830.90420191492</v>
       </c>
       <c r="S4">
-        <v>0.04608684413065046</v>
+        <v>0.1350983531966585</v>
       </c>
       <c r="T4">
-        <v>0.04608684413065046</v>
+        <v>0.1350983531966585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>279.608741037999</v>
+        <v>282.6413673333333</v>
       </c>
       <c r="H5">
-        <v>279.608741037999</v>
+        <v>847.9241019999999</v>
       </c>
       <c r="I5">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780447</v>
       </c>
       <c r="J5">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780446</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N5">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O5">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P5">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q5">
-        <v>662.9676738115486</v>
+        <v>740.1575651114666</v>
       </c>
       <c r="R5">
-        <v>662.9676738115486</v>
+        <v>6661.418086003198</v>
       </c>
       <c r="S5">
-        <v>0.05225019491445117</v>
+        <v>0.04538101763844777</v>
       </c>
       <c r="T5">
-        <v>0.05225019491445117</v>
+        <v>0.04538101763844776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>279.608741037999</v>
+        <v>282.6413673333333</v>
       </c>
       <c r="H6">
-        <v>279.608741037999</v>
+        <v>847.9241019999999</v>
       </c>
       <c r="I6">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780447</v>
       </c>
       <c r="J6">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N6">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P6">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q6">
-        <v>4175.431340691753</v>
+        <v>4381.869105275622</v>
       </c>
       <c r="R6">
-        <v>4175.431340691753</v>
+        <v>39436.8219474806</v>
       </c>
       <c r="S6">
-        <v>0.329076529702815</v>
+        <v>0.2686639825480069</v>
       </c>
       <c r="T6">
-        <v>0.329076529702815</v>
+        <v>0.2686639825480069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>279.608741037999</v>
+        <v>282.6413673333333</v>
       </c>
       <c r="H7">
-        <v>279.608741037999</v>
+        <v>847.9241019999999</v>
       </c>
       <c r="I7">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780447</v>
       </c>
       <c r="J7">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780446</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N7">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O7">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P7">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q7">
-        <v>5202.24421305421</v>
+        <v>5279.42239339326</v>
       </c>
       <c r="R7">
-        <v>5202.24421305421</v>
+        <v>47514.80154053934</v>
       </c>
       <c r="S7">
-        <v>0.4100023045798213</v>
+        <v>0.3236953481915901</v>
       </c>
       <c r="T7">
-        <v>0.4100023045798213</v>
+        <v>0.32369534819159</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.302158263509</v>
+        <v>42.586595</v>
       </c>
       <c r="H8">
-        <v>42.302158263509</v>
+        <v>127.759785</v>
       </c>
       <c r="I8">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105341</v>
       </c>
       <c r="J8">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105343</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N8">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O8">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P8">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q8">
-        <v>100.3007393726479</v>
+        <v>111.5222119075517</v>
       </c>
       <c r="R8">
-        <v>100.3007393726479</v>
+        <v>1003.699907167965</v>
       </c>
       <c r="S8">
-        <v>0.00790496036127113</v>
+        <v>0.006837721728741818</v>
       </c>
       <c r="T8">
-        <v>0.00790496036127113</v>
+        <v>0.006837721728741818</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.302158263509</v>
+        <v>42.586595</v>
       </c>
       <c r="H9">
-        <v>42.302158263509</v>
+        <v>127.759785</v>
       </c>
       <c r="I9">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105341</v>
       </c>
       <c r="J9">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105343</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N9">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O9">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P9">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q9">
-        <v>631.7032748570404</v>
+        <v>660.232034291385</v>
       </c>
       <c r="R9">
-        <v>631.7032748570404</v>
+        <v>5942.088308622465</v>
       </c>
       <c r="S9">
-        <v>0.04978616687238321</v>
+        <v>0.04048057198352537</v>
       </c>
       <c r="T9">
-        <v>0.04978616687238321</v>
+        <v>0.04048057198352537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.302158263509</v>
+        <v>42.586595</v>
       </c>
       <c r="H10">
-        <v>42.302158263509</v>
+        <v>127.759785</v>
       </c>
       <c r="I10">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105341</v>
       </c>
       <c r="J10">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105343</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N10">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O10">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P10">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q10">
-        <v>787.0503518920244</v>
+        <v>795.4696278984982</v>
       </c>
       <c r="R10">
-        <v>787.0503518920244</v>
+        <v>7159.226651086484</v>
       </c>
       <c r="S10">
-        <v>0.06202947129747265</v>
+        <v>0.04877234647878623</v>
       </c>
       <c r="T10">
-        <v>0.06202947129747265</v>
+        <v>0.04877234647878623</v>
       </c>
     </row>
   </sheetData>
